--- a/data/Datos.xlsx
+++ b/data/Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocano\Documents\Horas proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocano\Documents\Proyecto_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F8DBFC-87F0-4D6E-AA21-ABF7E7F1D22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908D134E-96B9-4AEC-9957-D65BE5E5A4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{81527AB4-D04A-4828-9FE8-926FA5C9DF1E}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +623,7 @@
         <v>99.5</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -646,7 +646,7 @@
         <v>363.5</v>
       </c>
       <c r="H5">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -666,7 +666,7 @@
         <v>57.5</v>
       </c>
       <c r="H6">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -775,7 +775,7 @@
         <v>341.5</v>
       </c>
       <c r="H11">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
